--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hazar\OneDrive\Dokumenty\Pierdoły\Studia\2 semestr AiR\Narzędzia pracy grupowej\WhosThere\WhosThere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F6D44A-3CBA-46C3-A281-4CEF342B09E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDA6E40-FAF9-44E0-80E3-7942E9AD19B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Backlog WhosThere</t>
   </si>
@@ -43,6 +43,138 @@
   </si>
   <si>
     <t>Czas pracy</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>06.05.2024r.</t>
+  </si>
+  <si>
+    <t>Patryk</t>
+  </si>
+  <si>
+    <t>Naprawa myszki</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>Ukończono</t>
+  </si>
+  <si>
+    <t>Przemek</t>
+  </si>
+  <si>
+    <t>Stworzenie Repozytorium i Projektu</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>Kamil</t>
+  </si>
+  <si>
+    <t>Robienie zdjęć: zaprogramowanie kamery</t>
+  </si>
+  <si>
+    <t>75 min</t>
+  </si>
+  <si>
+    <t>09.05 - 10.05.24r.</t>
+  </si>
+  <si>
+    <t>08.05 - 10.05.24r.</t>
+  </si>
+  <si>
+    <t>Justyna</t>
+  </si>
+  <si>
+    <t>Robienie zdjęć: Stworzenie warunku sprawdzającego if</t>
+  </si>
+  <si>
+    <t>80 min</t>
+  </si>
+  <si>
+    <t>11.05.2024r.</t>
+  </si>
+  <si>
+    <t>trening: enkodowanie</t>
+  </si>
+  <si>
+    <t>120 min</t>
+  </si>
+  <si>
+    <t>main: Odczytanie danych z pliku .yaml</t>
+  </si>
+  <si>
+    <t>11.05 - 12.05.24r.</t>
+  </si>
+  <si>
+    <t>290 min</t>
+  </si>
+  <si>
+    <t>12.05.2024r.</t>
+  </si>
+  <si>
+    <t>main: szacowanie rozpoznania</t>
+  </si>
+  <si>
+    <t>100 min</t>
+  </si>
+  <si>
+    <t>main: złączenie całości</t>
+  </si>
+  <si>
+    <t>13.05.2024r.</t>
+  </si>
+  <si>
+    <t>70 min</t>
+  </si>
+  <si>
+    <t>Zapoznać się z biblioteką python tkinter</t>
+  </si>
+  <si>
+    <t>Wszyscy</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>W trakcie</t>
+  </si>
+  <si>
+    <t>Zapoznać się z biblioteką python CV2</t>
+  </si>
+  <si>
+    <t>Zapoznać się z biblioteką python face_recognition</t>
+  </si>
+  <si>
+    <t>take_photo: implementacja przycisków wyjścia i zapisu</t>
+  </si>
+  <si>
+    <t>55 min</t>
+  </si>
+  <si>
+    <t>19.05 -</t>
+  </si>
+  <si>
+    <t>Dodanie backlogu</t>
+  </si>
+  <si>
+    <t>22.05.2024r.</t>
+  </si>
+  <si>
+    <t>35 min</t>
+  </si>
+  <si>
+    <t>take_photo: implementacja przycisku usuwania</t>
+  </si>
+  <si>
+    <t>20.05 -</t>
+  </si>
+  <si>
+    <t>Do zrobienia</t>
   </si>
 </sst>
 </file>
@@ -59,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,6 +201,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -85,16 +223,119 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -404,18 +645,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886C42E0-FDBA-4042-95B4-E83169C6C7B4}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="15.77734375" customWidth="1"/>
+    <col min="1" max="6" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,28 +664,333 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:F3">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="W trakcie">
+      <formula>NOT(ISERROR(SEARCH("W trakcie",A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F1048576">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="W trakcie">
+      <formula>NOT(ISERROR(SEARCH("W trakcie",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Ukończono">
+      <formula>NOT(ISERROR(SEARCH("Ukończono",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Do zrobienia">
+      <formula>NOT(ISERROR(SEARCH("Do zrobienia",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hazar\OneDrive\Dokumenty\Pierdoły\Studia\2 semestr AiR\Narzędzia pracy grupowej\WhosThere\WhosThere\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konpf\Desktop\AGH AiR\Semestr 2\NPG\Who's there\WhosThere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDA6E40-FAF9-44E0-80E3-7942E9AD19B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27ECEC3-6672-405C-91CD-E69D7401D78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>Backlog WhosThere</t>
   </si>
@@ -42,24 +42,15 @@
     <t>Numer sprintu</t>
   </si>
   <si>
-    <t>Czas pracy</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>06.05.2024r.</t>
-  </si>
-  <si>
     <t>Patryk</t>
   </si>
   <si>
     <t>Naprawa myszki</t>
   </si>
   <si>
-    <t>15 min</t>
-  </si>
-  <si>
     <t>Ukończono</t>
   </si>
   <si>
@@ -69,69 +60,30 @@
     <t>Stworzenie Repozytorium i Projektu</t>
   </si>
   <si>
-    <t>30 min</t>
-  </si>
-  <si>
     <t>Kamil</t>
   </si>
   <si>
     <t>Robienie zdjęć: zaprogramowanie kamery</t>
   </si>
   <si>
-    <t>75 min</t>
-  </si>
-  <si>
-    <t>09.05 - 10.05.24r.</t>
-  </si>
-  <si>
-    <t>08.05 - 10.05.24r.</t>
-  </si>
-  <si>
     <t>Justyna</t>
   </si>
   <si>
     <t>Robienie zdjęć: Stworzenie warunku sprawdzającego if</t>
   </si>
   <si>
-    <t>80 min</t>
-  </si>
-  <si>
-    <t>11.05.2024r.</t>
-  </si>
-  <si>
     <t>trening: enkodowanie</t>
   </si>
   <si>
-    <t>120 min</t>
-  </si>
-  <si>
     <t>main: Odczytanie danych z pliku .yaml</t>
   </si>
   <si>
-    <t>11.05 - 12.05.24r.</t>
-  </si>
-  <si>
-    <t>290 min</t>
-  </si>
-  <si>
-    <t>12.05.2024r.</t>
-  </si>
-  <si>
     <t>main: szacowanie rozpoznania</t>
   </si>
   <si>
-    <t>100 min</t>
-  </si>
-  <si>
     <t>main: złączenie całości</t>
   </si>
   <si>
-    <t>13.05.2024r.</t>
-  </si>
-  <si>
-    <t>70 min</t>
-  </si>
-  <si>
     <t>Zapoznać się z biblioteką python tkinter</t>
   </si>
   <si>
@@ -153,28 +105,28 @@
     <t>take_photo: implementacja przycisków wyjścia i zapisu</t>
   </si>
   <si>
-    <t>55 min</t>
-  </si>
-  <si>
-    <t>19.05 -</t>
-  </si>
-  <si>
     <t>Dodanie backlogu</t>
   </si>
   <si>
-    <t>22.05.2024r.</t>
-  </si>
-  <si>
-    <t>35 min</t>
-  </si>
-  <si>
     <t>take_photo: implementacja przycisku usuwania</t>
   </si>
   <si>
-    <t>20.05 -</t>
-  </si>
-  <si>
     <t>Do zrobienia</t>
+  </si>
+  <si>
+    <t>take_photo: umieszczenie podglądu z kamery w oknie tkinter</t>
+  </si>
+  <si>
+    <t>main: umieścić okno podglądu kamery w oknie tkinter</t>
+  </si>
+  <si>
+    <t>take_photo: dodanie graficznej informacji o pomyślnym zapisie zdjęcia</t>
+  </si>
+  <si>
+    <t>take_photo: dodanie pola tekstowego do wprowadzania nazwy użytkownika</t>
+  </si>
+  <si>
+    <t>Czas pracy [min]</t>
   </si>
 </sst>
 </file>
@@ -206,7 +158,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,13 +180,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -265,76 +228,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -348,10 +241,28 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}" name="Tabela3" displayName="Tabela3" ref="A2:F22" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:F22" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F22">
+    <sortCondition ref="A2:A22"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A1F311A4-2A09-4BB8-A7E1-DB540331EE3A}" name="Data" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E0454E4A-CA3E-4F7C-B6CE-6A599483804E}" name="Osoba"/>
+    <tableColumn id="3" xr3:uid="{F704942A-866B-4258-86FF-02E2F30AB7C8}" name="Nazwa zadania"/>
+    <tableColumn id="4" xr3:uid="{5E2BEA97-3FA4-4DE1-8C33-BD7986796287}" name="Numer sprintu"/>
+    <tableColumn id="5" xr3:uid="{E22A02FE-7D0A-4847-88B7-0317DE9F8D28}" name="Czas pracy [min]"/>
+    <tableColumn id="6" xr3:uid="{CEDA51AE-7E10-4961-8B51-4BBA73AE228B}" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,7 +300,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -495,7 +406,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -645,15 +556,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886C42E0-FDBA-4042-95B4-E83169C6C7B4}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="15.77734375" customWidth="1"/>
+    <col min="1" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -680,318 +591,401 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
+      <c r="A3" s="2">
+        <v>45418</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="A4" s="2">
+        <v>45418</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="A5" s="2">
+        <v>45418</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2">
+        <v>45418</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45418</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
+      <c r="E7">
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
+      <c r="A8" s="2">
+        <v>45422</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
+      <c r="E8">
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
+      <c r="A9" s="2">
+        <v>45422</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>22</v>
+      <c r="E9">
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
+      <c r="A10" s="2">
+        <v>45423</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>25</v>
+      <c r="E10">
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
+      <c r="A11" s="2">
+        <v>45424</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>28</v>
+      <c r="E11">
+        <v>290</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>29</v>
+      <c r="A12" s="2">
+        <v>45424</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>31</v>
+      <c r="E12">
+        <v>100</v>
       </c>
       <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45425</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>34</v>
+      <c r="E13">
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>43</v>
+      <c r="A14" s="2">
+        <v>45430</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>42</v>
+      <c r="E14">
+        <v>135</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>45</v>
+      <c r="A15" s="2">
+        <v>45430</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
-        <v>46</v>
+      <c r="E15">
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>48</v>
+      <c r="A16" s="2">
+        <v>45431</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
-        <v>14</v>
+      <c r="E16">
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45435</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>180</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:F3">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="W trakcie">
-      <formula>NOT(ISERROR(SEARCH("W trakcie",A3)))</formula>
+  <conditionalFormatting sqref="A1:F1048576">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Do zrobienia">
+      <formula>NOT(ISERROR(SEARCH("Do zrobienia",A1)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="W trakcie">
-      <formula>NOT(ISERROR(SEARCH("W trakcie",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Ukończono">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Ukończono">
       <formula>NOT(ISERROR(SEARCH("Ukończono",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Do zrobienia">
-      <formula>NOT(ISERROR(SEARCH("Do zrobienia",A1)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="W trakcie">
+      <formula>NOT(ISERROR(SEARCH("W trakcie",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konpf\Desktop\AGH AiR\Semestr 2\NPG\Who's there\WhosThere\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AGH\NPG\Projekt-WhosThere\WhosThere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27ECEC3-6672-405C-91CD-E69D7401D78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7A0552-4AED-451C-B13C-F8BB30D093A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
   <si>
     <t>Backlog WhosThere</t>
   </si>
@@ -127,16 +138,54 @@
   </si>
   <si>
     <t>Czas pracy [min]</t>
+  </si>
+  <si>
+    <t>take_photo: Dodanie graficznego licznika zdjęć</t>
+  </si>
+  <si>
+    <t>trening: dodanie graficznej informacji rezultacie operacji</t>
+  </si>
+  <si>
+    <t>main: dodać przycisk do opuszczania programu</t>
+  </si>
+  <si>
+    <t>1 sprint</t>
+  </si>
+  <si>
+    <t>2 sprint</t>
+  </si>
+  <si>
+    <t>całość</t>
+  </si>
+  <si>
+    <t>h pracy</t>
+  </si>
+  <si>
+    <t>Dla reszty też zrobić wykresy jak będziemy mieli całość</t>
+  </si>
+  <si>
+    <t>Skompletowanie backlogu sprintu 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -175,29 +224,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -228,6 +268,17 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -241,14 +292,1118 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Czas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> pracy </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Pierwszego</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>sprintu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$H$3:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Justyna</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Patryk</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kamil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Przemek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.833333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D24C-4C46-9AAB-09ED829313FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1719413184"/>
+        <c:axId val="1719402624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1719413184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Członkowie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1719402624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1719402624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Ilość godzin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1719413184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>41412</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>74542</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>29817</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Wykres 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABCA508-CD1D-FBB2-9F10-44275998A775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}" name="Tabela3" displayName="Tabela3" ref="A2:F22" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:F22" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}" name="Tabela3" displayName="Tabela3" ref="A2:F30" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A2:F30" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F22">
     <sortCondition ref="A2:A22"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A1F311A4-2A09-4BB8-A7E1-DB540331EE3A}" name="Data" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A1F311A4-2A09-4BB8-A7E1-DB540331EE3A}" name="Data" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E0454E4A-CA3E-4F7C-B6CE-6A599483804E}" name="Osoba"/>
     <tableColumn id="3" xr3:uid="{F704942A-866B-4258-86FF-02E2F30AB7C8}" name="Nazwa zadania"/>
     <tableColumn id="4" xr3:uid="{5E2BEA97-3FA4-4DE1-8C33-BD7986796287}" name="Numer sprintu"/>
@@ -556,49 +1711,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886C42E0-FDBA-4042-95B4-E83169C6C7B4}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" customWidth="1"/>
+    <col min="17" max="17" width="8.44140625" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>45418</v>
       </c>
       <c r="B3" t="s">
@@ -616,9 +1809,23 @@
       <c r="F3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3">
+        <f>SUMIF(B8:B13,H3,E8:E13)/60</f>
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>45418</v>
       </c>
       <c r="B4" t="s">
@@ -636,9 +1843,24 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3">
+        <f>SUMIF(B8:B13,H4,E8:E13)/60</f>
+        <v>1.25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="R4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>45418</v>
       </c>
       <c r="B5" t="s">
@@ -656,9 +1878,24 @@
       <c r="F5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3">
+        <f>SUMIF(B8:B13,H5,E8:E13)/60</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>45418</v>
       </c>
       <c r="B6" t="s">
@@ -676,9 +1913,24 @@
       <c r="F6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3">
+        <f>SUMIF(B8:B13,H6,E8:E13)/60</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="R6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>45418</v>
       </c>
       <c r="B7" t="s">
@@ -696,9 +1948,10 @@
       <c r="F7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>45422</v>
       </c>
       <c r="B8" t="s">
@@ -717,8 +1970,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>45422</v>
       </c>
       <c r="B9" t="s">
@@ -737,8 +1990,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>45423</v>
       </c>
       <c r="B10" t="s">
@@ -757,8 +2010,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>45424</v>
       </c>
       <c r="B11" t="s">
@@ -777,8 +2030,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>45424</v>
       </c>
       <c r="B12" t="s">
@@ -797,8 +2050,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>45425</v>
       </c>
       <c r="B13" t="s">
@@ -817,8 +2070,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>45430</v>
       </c>
       <c r="B14" t="s">
@@ -837,8 +2090,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>45430</v>
       </c>
       <c r="B15" t="s">
@@ -857,8 +2110,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>45431</v>
       </c>
       <c r="B16" t="s">
@@ -877,8 +2130,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>45432</v>
       </c>
       <c r="B17" t="s">
@@ -897,8 +2150,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>45433</v>
       </c>
       <c r="B18" t="s">
@@ -917,8 +2170,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>45434</v>
       </c>
       <c r="B19" t="s">
@@ -937,8 +2190,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>45435</v>
       </c>
       <c r="B20" t="s">
@@ -957,13 +2210,122 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>90</v>
+      </c>
       <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="F25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F22" t="s">
+      <c r="H25" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="F30" t="s">
         <v>28</v>
       </c>
     </row>
@@ -972,20 +2334,21 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Do zrobienia">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Do zrobienia">
       <formula>NOT(ISERROR(SEARCH("Do zrobienia",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Ukończono">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Ukończono">
       <formula>NOT(ISERROR(SEARCH("Ukończono",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="W trakcie">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="W trakcie">
       <formula>NOT(ISERROR(SEARCH("W trakcie",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AGH\NPG\Projekt-WhosThere\WhosThere\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konpf\Desktop\AGH AiR\Semestr 2\NPG\Who's there\WhosThere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7A0552-4AED-451C-B13C-F8BB30D093A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F207743C-6867-4282-BE93-3FD5D53CBE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
+    <workbookView xWindow="-25320" yWindow="-990" windowWidth="25440" windowHeight="15390" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
   <si>
     <t>Backlog WhosThere</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Skompletowanie backlogu sprintu 1</t>
+  </si>
+  <si>
+    <t>Skompletowanie backlogu sprintu 2</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +189,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -812,7 +822,473 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Caz pracy Drógiego sprintu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$M$3:$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Justyna</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Patryk</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kamil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Przemek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$N$3:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68C3-4747-A7F3-4B2B3F8E3F72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1530369103"/>
+        <c:axId val="1530369583"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1530369103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Członkowie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48882524059492566"/>
+              <c:y val="0.87868037328667248"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530369583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1530369583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ilość godzin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530369103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1355,6 +1831,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1388,6 +2367,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>207065</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>414131</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>54665</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D929D85-F8D5-1D06-B75B-C95E99EA9676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1714,7 +2729,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1819,6 +2834,10 @@
       <c r="M3" t="s">
         <v>13</v>
       </c>
+      <c r="N3">
+        <f>SUMIF($B$14:$B$23,H3,$E$14:$E$23)/60</f>
+        <v>0.58333333333333337</v>
+      </c>
       <c r="R3" t="s">
         <v>13</v>
       </c>
@@ -1853,7 +2872,10 @@
       <c r="M4" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4">
+        <f t="shared" ref="N4:N6" si="0">SUMIF($B$14:$B$23,H4,$E$14:$E$23)/60</f>
+        <v>9.3333333333333339</v>
+      </c>
       <c r="R4" t="s">
         <v>6</v>
       </c>
@@ -1888,7 +2910,10 @@
       <c r="M5" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
       <c r="R5" t="s">
         <v>11</v>
       </c>
@@ -1923,7 +2948,10 @@
       <c r="M6" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R6" t="s">
         <v>9</v>
       </c>
@@ -2291,9 +3319,23 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>41</v>
@@ -2333,6 +3375,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1048576">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Do zrobienia">
       <formula>NOT(ISERROR(SEARCH("Do zrobienia",A1)))</formula>

--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konpf\Desktop\AGH AiR\Semestr 2\NPG\Who's there\WhosThere\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hazar\OneDrive\Dokumenty\Pierdoły\Studia\2 semestr AiR\Narzędzia pracy grupowej\WhosThere\WhosThere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F207743C-6867-4282-BE93-3FD5D53CBE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B975A23C-A17E-4A77-88C4-3C6A90A073E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-990" windowWidth="25440" windowHeight="15390" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="45">
   <si>
     <t>Backlog WhosThere</t>
   </si>
@@ -168,6 +157,9 @@
   </si>
   <si>
     <t>Skompletowanie backlogu sprintu 2</t>
+  </si>
+  <si>
+    <t>main: dodać wyraźne graficzne potwierdzenie uzyskania dostępu</t>
   </si>
 </sst>
 </file>
@@ -857,7 +849,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Caz pracy Drógiego sprintu</a:t>
+              <a:t>Czas pracy Drugiego sprintu</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2430,9 +2422,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2013–2022">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2470,7 +2462,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2013–2022">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2576,7 +2568,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2013–2022">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2718,7 +2710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2729,7 +2721,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2822,7 +2814,7 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -2860,7 +2852,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -2898,7 +2890,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -3342,9 +3334,23 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">

--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konpf\Desktop\AGH AiR\Semestr 2\NPG\Who's there\WhosThere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F207743C-6867-4282-BE93-3FD5D53CBE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085A6862-F4DD-422E-A4B1-C0982825E872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-990" windowWidth="25440" windowHeight="15390" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
   <si>
     <t>Backlog WhosThere</t>
   </si>
@@ -2728,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886C42E0-FDBA-4042-95B4-E83169C6C7B4}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="92" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3342,15 +3342,43 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>35</v>
+      </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">

--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konpf\Desktop\AGH AiR\Semestr 2\NPG\Who's there\WhosThere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7053806-7C3C-49A3-8E9E-C99F466D3038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD904AEA-8515-4A06-B6C6-91FDB3EA2D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
   </bookViews>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -246,8 +246,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -3347,22 +3345,22 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="1">
         <v>45441</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26">
         <v>120</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" t="s">
         <v>8</v>
       </c>
       <c r="H26" s="4"/>

--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konpf\Desktop\AGH AiR\Semestr 2\NPG\Who's there\WhosThere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD904AEA-8515-4A06-B6C6-91FDB3EA2D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7636BA1-51B7-4490-8819-DF4AFCCE9B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
   <si>
     <t>Backlog WhosThere</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>main: dodać wyraźne graficzne potwierdzenie uzyskania dostępu</t>
+  </si>
+  <si>
+    <t>Stworzyć dokumentację Wewnętrzną/Architektury oprogramowania</t>
   </si>
 </sst>
 </file>
@@ -2731,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886C42E0-FDBA-4042-95B4-E83169C6C7B4}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="92" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3406,9 +3409,23 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>120</v>
+      </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">

--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konpf\Desktop\AGH AiR\Semestr 2\NPG\Who's there\WhosThere\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AGH\NPG\Projekt-WhosThere\WhosThere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7636BA1-51B7-4490-8819-DF4AFCCE9B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC26CF1-E7C9-4C13-A3CF-2CCE6C5B211B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
   <si>
     <t>Backlog WhosThere</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Stworzyć dokumentację Wewnętrzną/Architektury oprogramowania</t>
+  </si>
+  <si>
+    <t>Zmiana koloru przycisku usuwania zdjęć na czerwony</t>
   </si>
 </sst>
 </file>
@@ -917,6 +920,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Arkusz1!$M$3:$M$6</c:f>
@@ -2734,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886C42E0-FDBA-4042-95B4-E83169C6C7B4}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="92" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="92" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3429,9 +3491,23 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">

--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AGH\NPG\Projekt-WhosThere\WhosThere\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hazar\OneDrive\Dokumenty\Pierdoły\Studia\2 semestr AiR\Narzędzia pracy grupowej\WhosThere\WhosThere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC26CF1-E7C9-4C13-A3CF-2CCE6C5B211B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9939D8D-FA2E-4C5D-A18D-09B0C7E65CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="49">
   <si>
     <t>Backlog WhosThere</t>
   </si>
@@ -177,6 +166,12 @@
   </si>
   <si>
     <t>Zmiana koloru przycisku usuwania zdjęć na czerwony</t>
+  </si>
+  <si>
+    <t>Naprawienie problemu z błędnym wykrywaniem twarzy uciętej przez krawędź pola widzenia kamery</t>
+  </si>
+  <si>
+    <t>trening: przypisanie funkcjonalności do interfejsu</t>
   </si>
 </sst>
 </file>
@@ -2480,8 +2475,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}" name="Tabela3" displayName="Tabela3" ref="A2:F31" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A2:F31" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}" name="Tabela3" displayName="Tabela3" ref="A2:F33" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A2:F33" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F22">
     <sortCondition ref="A2:A22"/>
   </sortState>
@@ -2498,9 +2493,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2013–2022">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2538,7 +2533,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2013–2022">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2644,7 +2639,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2013–2022">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2786,7 +2781,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2794,10 +2789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886C42E0-FDBA-4042-95B4-E83169C6C7B4}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="92" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="92" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3511,8 +3506,48 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>45451</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
       <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45451</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="F33" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hazar\OneDrive\Dokumenty\Pierdoły\Studia\2 semestr AiR\Narzędzia pracy grupowej\WhosThere\WhosThere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9939D8D-FA2E-4C5D-A18D-09B0C7E65CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B04EC76-9299-40CC-9F75-B73D3FADE2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -861,7 +861,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Caz pracy Drógiego sprintu</a:t>
+              <a:t>Czas pracy Drugiego sprintu</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2791,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886C42E0-FDBA-4042-95B4-E83169C6C7B4}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="92" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hazar\OneDrive\Dokumenty\Pierdoły\Studia\2 semestr AiR\Narzędzia pracy grupowej\WhosThere\WhosThere\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konpf\Desktop\AGH AiR\Semestr 2\NPG\Who's there\WhosThere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B04EC76-9299-40CC-9F75-B73D3FADE2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35DBCDE-64D9-4CD7-9A8E-03FC118B5A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
   <si>
     <t>Backlog WhosThere</t>
   </si>
@@ -111,9 +122,6 @@
     <t>take_photo: implementacja przycisku usuwania</t>
   </si>
   <si>
-    <t>Do zrobienia</t>
-  </si>
-  <si>
     <t>take_photo: umieszczenie podglądu z kamery w oknie tkinter</t>
   </si>
   <si>
@@ -172,6 +180,15 @@
   </si>
   <si>
     <t>trening: przypisanie funkcjonalności do interfejsu</t>
+  </si>
+  <si>
+    <t>Merge branchy podprojektów do main</t>
+  </si>
+  <si>
+    <t>Uzupełnienie dokumentacji</t>
+  </si>
+  <si>
+    <t>ogół prac</t>
   </si>
 </sst>
 </file>
@@ -1311,6 +1328,424 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Ogólny czas pracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$H$31:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Justyna</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Patryk</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kamil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Przemek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$I$31:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.833333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0578-424E-834C-29B9A6AAC0CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="867121328"/>
+        <c:axId val="867117968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="867121328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Członkowie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="867117968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="867117968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>ilość godzin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="867121328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1391,6 +1826,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1895,6 +2370,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2471,12 +3449,48 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>662608</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>170621</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6991E0-51DA-278E-DAE8-EDFDE5DEEBB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}" name="Tabela3" displayName="Tabela3" ref="A2:F33" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A2:F33" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}" name="Tabela3" displayName="Tabela3" ref="A2:F34" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A2:F34" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F22">
     <sortCondition ref="A2:A22"/>
   </sortState>
@@ -2493,9 +3507,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2533,7 +3547,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2639,7 +3653,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2781,7 +3795,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2789,10 +3803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886C42E0-FDBA-4042-95B4-E83169C6C7B4}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="92" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="92" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2830,22 +3844,22 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="H1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" t="s">
         <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -2862,7 +3876,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -3169,7 +4183,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -3189,7 +4203,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -3221,7 +4235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45432</v>
       </c>
@@ -3241,7 +4255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45433</v>
       </c>
@@ -3249,7 +4263,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -3261,7 +4275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45434</v>
       </c>
@@ -3281,7 +4295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45435</v>
       </c>
@@ -3289,7 +4303,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -3301,7 +4315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45436</v>
       </c>
@@ -3309,7 +4323,7 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -3321,7 +4335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45436</v>
       </c>
@@ -3329,7 +4343,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -3341,7 +4355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45436</v>
       </c>
@@ -3349,7 +4363,7 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -3361,7 +4375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45441</v>
       </c>
@@ -3369,7 +4383,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -3381,7 +4395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45442</v>
       </c>
@@ -3389,7 +4403,7 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -3401,10 +4415,10 @@
         <v>8</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45441</v>
       </c>
@@ -3412,7 +4426,7 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -3425,7 +4439,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45443</v>
       </c>
@@ -3445,7 +4459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45443</v>
       </c>
@@ -3465,7 +4479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45448</v>
       </c>
@@ -3473,7 +4487,7 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -3484,8 +4498,11 @@
       <c r="F29" t="s">
         <v>22</v>
       </c>
+      <c r="H29" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45448</v>
       </c>
@@ -3493,7 +4510,7 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -3505,7 +4522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45451</v>
       </c>
@@ -3513,7 +4530,7 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -3524,8 +4541,15 @@
       <c r="F31" t="s">
         <v>8</v>
       </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <f>SUMIF(B6:B34,H3,E6:E34)/60</f>
+        <v>6.583333333333333</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45451</v>
       </c>
@@ -3533,7 +4557,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -3544,11 +4568,66 @@
       <c r="F32" t="s">
         <v>8</v>
       </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32:I34" si="1">SUMIF(B7:B35,H4,E7:E35)/60</f>
+        <v>15.583333333333334</v>
+      </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45452</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>5.916666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45452</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>6.833333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konpf\Desktop\AGH AiR\Semestr 2\NPG\Who's there\WhosThere\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT_REPOS\WhosThere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35DBCDE-64D9-4CD7-9A8E-03FC118B5A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296120BA-5915-4A8D-B303-99E5F59DB4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="54">
   <si>
     <t>Backlog WhosThere</t>
   </si>
@@ -189,6 +178,15 @@
   </si>
   <si>
     <t>ogół prac</t>
+  </si>
+  <si>
+    <t>main: dodać funkcjonalność przycisku do wychodzenia z programu</t>
+  </si>
+  <si>
+    <t>trening: dodanie graficznego interfejsu</t>
+  </si>
+  <si>
+    <t>3 sprint</t>
   </si>
 </sst>
 </file>
@@ -266,7 +264,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -326,7 +324,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -846,7 +844,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1331,7 +1329,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1453,7 +1451,7 @@
                   <c:v>5.916666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.833333333333333</c:v>
+                  <c:v>8.8333333333333339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3489,8 +3487,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}" name="Tabela3" displayName="Tabela3" ref="A2:F34" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A2:F34" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}" name="Tabela3" displayName="Tabela3" ref="A2:F36" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A2:F36" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F22">
     <sortCondition ref="A2:A22"/>
   </sortState>
@@ -3507,9 +3505,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2013–2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3547,7 +3545,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2013–2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3653,7 +3651,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2013–2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3795,7 +3793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3803,38 +3801,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886C42E0-FDBA-4042-95B4-E83169C6C7B4}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="92" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="92" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" customWidth="1"/>
-    <col min="17" max="17" width="8.44140625" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3856,13 +3855,19 @@
         <v>39</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s">
         <v>39</v>
       </c>
+      <c r="V1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3882,7 +3887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45418</v>
       </c>
@@ -3919,8 +3924,12 @@
         <v>13</v>
       </c>
       <c r="S3" s="3"/>
+      <c r="V3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45418</v>
       </c>
@@ -3957,8 +3966,12 @@
         <v>6</v>
       </c>
       <c r="S4" s="3"/>
+      <c r="V4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45418</v>
       </c>
@@ -3995,8 +4008,12 @@
         <v>11</v>
       </c>
       <c r="S5" s="3"/>
+      <c r="V5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45418</v>
       </c>
@@ -4033,8 +4050,12 @@
         <v>9</v>
       </c>
       <c r="S6" s="3"/>
+      <c r="V6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45418</v>
       </c>
@@ -4055,7 +4076,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45422</v>
       </c>
@@ -4075,7 +4096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45422</v>
       </c>
@@ -4095,7 +4116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45423</v>
       </c>
@@ -4115,7 +4136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45424</v>
       </c>
@@ -4135,7 +4156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45424</v>
       </c>
@@ -4155,7 +4176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45425</v>
       </c>
@@ -4175,7 +4196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45430</v>
       </c>
@@ -4195,7 +4216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45430</v>
       </c>
@@ -4215,7 +4236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45431</v>
       </c>
@@ -4235,7 +4256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45432</v>
       </c>
@@ -4255,7 +4276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45433</v>
       </c>
@@ -4275,7 +4296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45434</v>
       </c>
@@ -4295,7 +4316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45435</v>
       </c>
@@ -4315,7 +4336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45436</v>
       </c>
@@ -4335,7 +4356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45436</v>
       </c>
@@ -4355,7 +4376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45436</v>
       </c>
@@ -4375,7 +4396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45441</v>
       </c>
@@ -4395,7 +4416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45442</v>
       </c>
@@ -4418,7 +4439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45441</v>
       </c>
@@ -4439,7 +4460,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45443</v>
       </c>
@@ -4459,7 +4480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45443</v>
       </c>
@@ -4479,7 +4500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45448</v>
       </c>
@@ -4502,7 +4523,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45448</v>
       </c>
@@ -4522,7 +4543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45451</v>
       </c>
@@ -4545,11 +4566,11 @@
         <v>13</v>
       </c>
       <c r="I31">
-        <f>SUMIF(B6:B34,H3,E6:E34)/60</f>
+        <f>SUMIF(B6:B34,H3,E6:E107)/60</f>
         <v>6.583333333333333</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45451</v>
       </c>
@@ -4572,11 +4593,11 @@
         <v>6</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32:I34" si="1">SUMIF(B7:B35,H4,E7:E35)/60</f>
+        <f>SUMIF(B7:B35,H4,E7:E107)/60</f>
         <v>15.583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45452</v>
       </c>
@@ -4599,11 +4620,11 @@
         <v>11</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
+        <f>SUMIF(B8:B36,H5,E8:E107)/60</f>
         <v>5.916666666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45452</v>
       </c>
@@ -4626,8 +4647,48 @@
         <v>9</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
-        <v>6.833333333333333</v>
+        <f>SUMIF(B9:B37,H6,E9:E107)/60</f>
+        <v>8.8333333333333339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45452</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45452</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konpf\Desktop\AGH AiR\Semestr 2\NPG\Who's there\WhosThere\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AGH\NPG\Projekt-WhosThere\WhosThere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35DBCDE-64D9-4CD7-9A8E-03FC118B5A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F0421-ED2D-4670-BFE7-89ED90EC801A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
   <si>
     <t>Backlog WhosThere</t>
   </si>
@@ -1450,7 +1450,7 @@
                   <c:v>15.583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.916666666666667</c:v>
+                  <c:v>6.416666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.833333333333333</c:v>
@@ -3489,8 +3489,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}" name="Tabela3" displayName="Tabela3" ref="A2:F34" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A2:F34" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}" name="Tabela3" displayName="Tabela3" ref="A2:F36" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A2:F36" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F22">
     <sortCondition ref="A2:A22"/>
   </sortState>
@@ -3803,10 +3803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886C42E0-FDBA-4042-95B4-E83169C6C7B4}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="92" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>5.916666666666667</v>
+        <v>6.416666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -4629,6 +4629,29 @@
         <f t="shared" si="1"/>
         <v>6.833333333333333</v>
       </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45452</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT_REPOS\WhosThere\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AGH\NPG\Projekt-WhosThere\WhosThere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296120BA-5915-4A8D-B303-99E5F59DB4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F5CC2E-1F15-430D-B6E2-82C51B116A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB39B143-865E-4DD6-BAEF-9CFDD188383C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
   <si>
     <t>Backlog WhosThere</t>
   </si>
@@ -264,7 +275,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -324,7 +335,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -844,7 +855,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1329,7 +1340,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1445,10 +1456,10 @@
                   <c:v>6.583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.583333333333334</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.916666666666667</c:v>
+                  <c:v>6.416666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.8333333333333339</c:v>
@@ -3487,8 +3498,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}" name="Tabela3" displayName="Tabela3" ref="A2:F36" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A2:F36" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}" name="Tabela3" displayName="Tabela3" ref="A2:F38" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A2:F38" xr:uid="{56F8B267-4195-4B64-A121-BDEF55206FFC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F22">
     <sortCondition ref="A2:A22"/>
   </sortState>
@@ -3505,9 +3516,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3545,7 +3556,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3651,7 +3662,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3793,7 +3804,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3801,39 +3812,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886C42E0-FDBA-4042-95B4-E83169C6C7B4}">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="92" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" customWidth="1"/>
+    <col min="17" max="17" width="8.44140625" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3867,7 +3878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3887,7 +3898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45418</v>
       </c>
@@ -3929,7 +3940,7 @@
       </c>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45418</v>
       </c>
@@ -3971,7 +3982,7 @@
       </c>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45418</v>
       </c>
@@ -4013,7 +4024,7 @@
       </c>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45418</v>
       </c>
@@ -4055,7 +4066,7 @@
       </c>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45418</v>
       </c>
@@ -4076,7 +4087,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45422</v>
       </c>
@@ -4096,7 +4107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45422</v>
       </c>
@@ -4116,7 +4127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45423</v>
       </c>
@@ -4136,7 +4147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45424</v>
       </c>
@@ -4156,7 +4167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45424</v>
       </c>
@@ -4176,7 +4187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45425</v>
       </c>
@@ -4196,7 +4207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45430</v>
       </c>
@@ -4216,7 +4227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45430</v>
       </c>
@@ -4236,7 +4247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45431</v>
       </c>
@@ -4256,7 +4267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45432</v>
       </c>
@@ -4276,7 +4287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45433</v>
       </c>
@@ -4296,7 +4307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45434</v>
       </c>
@@ -4316,7 +4327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45435</v>
       </c>
@@ -4336,7 +4347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45436</v>
       </c>
@@ -4356,7 +4367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45436</v>
       </c>
@@ -4376,7 +4387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45436</v>
       </c>
@@ -4396,7 +4407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45441</v>
       </c>
@@ -4416,7 +4427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45442</v>
       </c>
@@ -4439,7 +4450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45441</v>
       </c>
@@ -4460,7 +4471,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45443</v>
       </c>
@@ -4480,7 +4491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45443</v>
       </c>
@@ -4500,7 +4511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45448</v>
       </c>
@@ -4523,7 +4534,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45448</v>
       </c>
@@ -4543,7 +4554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45451</v>
       </c>
@@ -4566,11 +4577,11 @@
         <v>13</v>
       </c>
       <c r="I31">
-        <f>SUMIF(B6:B34,H3,E6:E107)/60</f>
+        <f>SUMIF(B6:B48,H3,E6:E108)/60</f>
         <v>6.583333333333333</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45451</v>
       </c>
@@ -4593,11 +4604,11 @@
         <v>6</v>
       </c>
       <c r="I32">
-        <f>SUMIF(B7:B35,H4,E7:E107)/60</f>
-        <v>15.583333333333334</v>
+        <f>SUMIF(B6:B43,H4,E6:E107)/60</f>
+        <v>15.833333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45452</v>
       </c>
@@ -4620,11 +4631,11 @@
         <v>11</v>
       </c>
       <c r="I33">
-        <f>SUMIF(B8:B36,H5,E8:E107)/60</f>
-        <v>5.916666666666667</v>
+        <f>SUMIF(B6:B45,H5,E6:E108)/60</f>
+        <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45452</v>
       </c>
@@ -4647,11 +4658,11 @@
         <v>9</v>
       </c>
       <c r="I34">
-        <f>SUMIF(B9:B37,H6,E9:E107)/60</f>
+        <f>SUMIF(B9:B37,H6,E9:E108)/60</f>
         <v>8.8333333333333339</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45452</v>
       </c>
@@ -4671,7 +4682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45452</v>
       </c>
@@ -4690,6 +4701,29 @@
       <c r="F36" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45452</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
